--- a/src/test/resources/TestData/TestData1.xlsx
+++ b/src/test/resources/TestData/TestData1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="UserManagement" sheetId="1" r:id="rId1"/>
+    <sheet name="StoreManagement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>firstName</t>
   </si>
@@ -51,10 +52,70 @@
     <t>UserThree</t>
   </si>
   <si>
-    <t>UserFour</t>
-  </si>
-  <si>
-    <t>user4@test.com</t>
+    <t>branchName</t>
+  </si>
+  <si>
+    <t>storeCode</t>
+  </si>
+  <si>
+    <t>telephoneNo</t>
+  </si>
+  <si>
+    <t>postalCode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>Taramani</t>
+  </si>
+  <si>
+    <t>S00001</t>
+  </si>
+  <si>
+    <t>RMZ millenium plaza, Taramani</t>
+  </si>
+  <si>
+    <t>srm@test.com</t>
+  </si>
+  <si>
+    <t>Ekkaduthangal</t>
+  </si>
+  <si>
+    <t>S00002</t>
+  </si>
+  <si>
+    <t>Pullama building, Ekkaduthangal</t>
+  </si>
+  <si>
+    <t>srm1@test.com</t>
+  </si>
+  <si>
+    <t>Srm Test Store one</t>
+  </si>
+  <si>
+    <t>600-1117</t>
+  </si>
+  <si>
+    <t>600-1118</t>
+  </si>
+  <si>
+    <t>Srm Test Store two</t>
+  </si>
+  <si>
+    <t>headName</t>
+  </si>
+  <si>
+    <t>expectedColumnValue</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>pandiarajang@srmtech.com</t>
   </si>
 </sst>
 </file>
@@ -398,18 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,8 +489,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -442,30 +512,116 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>440440440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>440440441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>